--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2272302.61749909</v>
+        <v>2270415.035982689</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>132.1698386944292</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.52687838733164</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.78742075103631</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>287.1295912089695</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>133.5065782393455</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.37301815329025</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>181.2178631822714</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>351.2958555248362</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>59.71215406761458</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94.16481274941255</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>188.1607094910705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>101.2898147863547</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>85.43728102995807</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1850,13 +1850,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>47.14779273116372</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>51.44029960352461</v>
       </c>
     </row>
     <row r="20">
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>101.2898147863548</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>196.334790724396</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>252.5400742884153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>87.65220976162077</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>58.40168825977554</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>149.4433890341041</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965544</v>
+        <v>93.41221638965547</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437433</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897921</v>
+        <v>93.71057173897924</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571507</v>
+        <v>39.72583251028446</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523588</v>
+        <v>54.76109577523589</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>92.06359823025367</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952711</v>
@@ -3013,7 +3013,7 @@
         <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604803</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235379</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789566</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789545</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
         <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4183,7 +4183,7 @@
         <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
         <v>153.4156709287486</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1314.38774159731</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>945.4252246568988</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>587.1595260501483</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>201.3712734519041</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1704.527073573122</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1314.38774159731</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.737983561872</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="C5" t="n">
-        <v>946.7754666214607</v>
+        <v>1249.542876750359</v>
       </c>
       <c r="D5" t="n">
-        <v>588.5097680147103</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>202.721515416466</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>1618.50539369077</v>
       </c>
     </row>
     <row r="6">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>819.7731851199076</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C8" t="n">
-        <v>819.7731851199076</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>819.7731851199076</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>819.7731851199076</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>408.7872803303</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626913</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.378275356799</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1209.912517095719</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y8" t="n">
-        <v>819.7731851199076</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5024,40 +5024,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>378.1030765138943</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123425</v>
+        <v>192.3330639344399</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123425</v>
+        <v>192.3330639344399</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123425</v>
+        <v>192.3330639344399</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W13" t="n">
-        <v>665.685973528613</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305956</v>
+        <v>192.3330639344399</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.6350999123425</v>
+        <v>192.3330639344399</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5358,25 +5358,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>316.9584588710876</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>352.4535582568372</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>183.5173753289303</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>183.5173753289304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>754.894602230607</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X16" t="n">
-        <v>754.894602230607</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y16" t="n">
-        <v>534.1020230870769</v>
+        <v>199.530035688927</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5519,7 +5519,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>167.8887746690278</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>316.9584588710876</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775516</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.8632439327646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5674,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247859</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247859</v>
+        <v>874.9271131227919</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247859</v>
+        <v>620.242624916905</v>
       </c>
       <c r="W19" t="n">
-        <v>916.5117087630043</v>
+        <v>330.8254548799444</v>
       </c>
       <c r="X19" t="n">
-        <v>916.5117087630043</v>
+        <v>330.8254548799444</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.5117087630043</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5777,22 +5777,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5835,13 +5835,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.3990000507113</v>
+        <v>199.530035688927</v>
       </c>
       <c r="C22" t="n">
-        <v>562.3990000507113</v>
+        <v>199.530035688927</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1300.598300129219</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1300.598300129219</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1300.598300129219</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>1300.598300129219</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>1011.181130092259</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X22" t="n">
-        <v>783.1915791942414</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y22" t="n">
-        <v>562.3990000507113</v>
+        <v>199.530035688927</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766204</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1564.731711769082</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>1894.594339433115</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123426</v>
+        <v>266.1532743881926</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119729</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119729</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119729</v>
+        <v>898.7925182488387</v>
       </c>
       <c r="V25" t="n">
-        <v>1133.156678913842</v>
+        <v>644.1080300429519</v>
       </c>
       <c r="W25" t="n">
-        <v>878.0656947841295</v>
+        <v>354.6908600059913</v>
       </c>
       <c r="X25" t="n">
-        <v>650.0761438861123</v>
+        <v>354.6908600059913</v>
       </c>
       <c r="Y25" t="n">
-        <v>429.2835647425823</v>
+        <v>266.1532743881926</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,10 +6212,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,28 +6224,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>167.8887746690276</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>316.9584588710875</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>563.7235867775516</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.3840174432688</v>
+        <v>545.1765965867985</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>545.1765965867985</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>395.0599571744629</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>395.0599571744629</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>248.1700096765526</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799367</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6421,13 +6421,13 @@
         <v>1244.231782352016</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150558</v>
+        <v>954.8146123150555</v>
       </c>
       <c r="X28" t="n">
-        <v>726.8250614170386</v>
+        <v>726.8250614170381</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.0324822735085</v>
+        <v>726.8250614170381</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,19 +6461,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,25 +6488,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>485.5200852635878</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>658.7225911205035</v>
+        <v>439.5324299542153</v>
       </c>
       <c r="C31" t="n">
-        <v>545.5472734739672</v>
+        <v>326.357112307679</v>
       </c>
       <c r="D31" t="n">
-        <v>451.191499343002</v>
+        <v>232.0013381767138</v>
       </c>
       <c r="E31" t="n">
-        <v>451.191499343002</v>
+        <v>232.0013381767138</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>232.0013381767138</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276538</v>
+        <v>232.0013381767138</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>137.3441950060277</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6625,13 +6625,13 @@
         <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667504</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962046</v>
+        <v>997.6688721962047</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353692</v>
@@ -6646,25 +6646,25 @@
         <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.811824899269</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1787.818291333356</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1554.450517828285</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1355.526894903769</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>1121.870590148179</v>
+        <v>902.6804289818906</v>
       </c>
       <c r="X31" t="n">
-        <v>949.641904531532</v>
+        <v>730.4517433652438</v>
       </c>
       <c r="Y31" t="n">
-        <v>784.6101906693725</v>
+        <v>565.4200295030844</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
@@ -6783,19 +6783,19 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766199</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7090,7 +7090,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010315</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,10 +7172,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7254,22 +7254,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507007</v>
+        <v>841.8631140141295</v>
       </c>
       <c r="N39" t="n">
-        <v>1800.678268171039</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O39" t="n">
-        <v>2080.218333389736</v>
+        <v>2315.73845358094</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7360,7 +7360,7 @@
         <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025263</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1427.741252113633</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1757.603879777666</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>2037.143944996363</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083198</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103121</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504511</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860497</v>
@@ -7819,37 +7819,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.288612901032</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>91.23759968302122</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>80.50021372615217</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>29.47535963978211</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,13 +9249,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>272.8719470256804</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,16 +9483,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9717,28 +9717,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>158.8724419039329</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>29.47535963978191</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,22 +9960,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>444.4889386861659</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>199.7396287231157</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>113.6026921294543</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>414.500217918085</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>15.83804904622771</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,22 +11145,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>297.2466435761034</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>134.4977453535109</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>52.26914989715662</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>30.42394386102425</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>78.54216539558256</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>60.9966816166111</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>239.3752056054273</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>167.1443537485702</v>
       </c>
     </row>
     <row r="20">
@@ -24130,16 +24130,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>47.32565823185759</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.586019259207205</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.4192454642719</v>
@@ -24412,25 +24412,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>33.98292404817572</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>130.932443590474</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>108.8451328388523</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>17.05017942927345</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801226</v>
+        <v>91.23070601801228</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437436</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>15.49015632543063</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>74.28070619957867</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842547.8393454835</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.238904999</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049988</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327928</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="G2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="I2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="J2" t="n">
         <v>547440.6836327926</v>
       </c>
-      <c r="J2" t="n">
-        <v>547440.6836327923</v>
-      </c>
       <c r="K2" t="n">
-        <v>569550.9922833787</v>
+        <v>569550.9922833785</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049979</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="M2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="N2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049977</v>
+        <v>574729.2389049984</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284532</v>
+        <v>44162.60530284547</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086701</v>
+        <v>10342.90680086703</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284551</v>
       </c>
     </row>
     <row r="4">
@@ -26427,7 +26427,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687072</v>
@@ -26439,25 +26439,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106721</v>
+        <v>40339.23010106719</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819121</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819125</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819115</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819118</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26497,19 +26497,19 @@
         <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-263730.5861594796</v>
+        <v>-263730.5861594793</v>
       </c>
       <c r="C6" t="n">
-        <v>326237.2930550649</v>
+        <v>326237.293055065</v>
       </c>
       <c r="D6" t="n">
-        <v>326237.293055065</v>
+        <v>326237.2930550647</v>
       </c>
       <c r="E6" t="n">
-        <v>-91881.28637969092</v>
+        <v>-91978.74550566298</v>
       </c>
       <c r="F6" t="n">
-        <v>433278.7500972053</v>
+        <v>433181.2909712329</v>
       </c>
       <c r="G6" t="n">
-        <v>433278.7500972049</v>
+        <v>433181.2909712328</v>
       </c>
       <c r="H6" t="n">
-        <v>433278.7500972052</v>
+        <v>433181.2909712331</v>
       </c>
       <c r="I6" t="n">
-        <v>433278.7500972053</v>
+        <v>433181.2909712329</v>
       </c>
       <c r="J6" t="n">
-        <v>256855.5309046121</v>
+        <v>256758.0717786401</v>
       </c>
       <c r="K6" t="n">
-        <v>388420.9483492434</v>
+        <v>388402.4546113088</v>
       </c>
       <c r="L6" t="n">
-        <v>422077.8314559143</v>
+        <v>422077.8314559147</v>
       </c>
       <c r="M6" t="n">
-        <v>297619.7230229448</v>
+        <v>297619.7230229447</v>
       </c>
       <c r="N6" t="n">
-        <v>432420.7382567818</v>
+        <v>432420.7382567817</v>
       </c>
       <c r="O6" t="n">
-        <v>432420.7382567821</v>
+        <v>432420.7382567819</v>
       </c>
       <c r="P6" t="n">
-        <v>388258.1329539355</v>
+        <v>388258.1329539364</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964068</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26756,25 +26756,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855686</v>
+        <v>55.20325662855684</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108376</v>
+        <v>12.92863350108379</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855686</v>
+        <v>55.20325662855684</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7062070472822</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>120.4387434050066</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>277.7355775855547</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>67.55345041171341</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>273.3694675023659</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>197.662087304794</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>184.0550285887362</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>62.48831449595878</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>192.4254892562134</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28570,13 +28570,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855689</v>
       </c>
     </row>
     <row r="32">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33655,40 +33655,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,10 +33728,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33740,7 +33740,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33749,10 +33749,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33828,7 +33828,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,10 +33840,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33904,13 +33904,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647497</v>
@@ -33925,7 +33925,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33980,7 +33980,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813463</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,10 +34041,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
         <v>45.03122946298631</v>
@@ -34053,10 +34053,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
@@ -34065,7 +34065,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,13 +34077,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>241.8130382709604</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35726,28 +35726,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>180.0507982277214</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>168.5132465112263</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221117</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>71.3855385946888</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,13 +35969,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>583.2963240761467</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315247</v>
@@ -35984,7 +35984,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315247</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>441.2361441450411</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556562</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>71.38553859468863</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>754.9133157366322</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36762,16 +36762,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>350.3150673110549</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>320.696107060979</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491597</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403577</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>724.9245949685511</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,7 +37470,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37552,19 +37552,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>103.8510818313019</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37865,19 +37865,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>504.340058507628</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>341.5911602850355</v>
       </c>
       <c r="Q45" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
